--- a/biology/Zoologie/Eutrachelophis_steinbachi/Eutrachelophis_steinbachi.xlsx
+++ b/biology/Zoologie/Eutrachelophis_steinbachi/Eutrachelophis_steinbachi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eutrachelophis steinbachi  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eutrachelophis steinbachi  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de la Bolivie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de la Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype d'Eutrachelophis steinbachi[2] mesure 540 mm dont 150 mm pour la queue. Cette espèce a la face dorsale grise. La partie antérieure de son corps présente une large bande vertébrale noire ou brun sombre ainsi qu'une bande latérale plus fine. Sa tête est tachée de blanc. Sa face ventrale est blanche.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype d'Eutrachelophis steinbachi mesure 540 mm dont 150 mm pour la queue. Cette espèce a la face dorsale grise. La partie antérieure de son corps présente une large bande vertébrale noire ou brun sombre ainsi qu'une bande latérale plus fine. Sa tête est tachée de blanc. Sa face ventrale est blanche.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de José Steinbach (1856–1929) qui a collecté les premiers spécimens[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de José Steinbach (1856–1929) qui a collecté les premiers spécimens.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1905  : Descriptions of new snakes in the collection of the British Museum. Annals and Magazine of Natural History, sér. 7, vol. 15, p. 453-456 (texte intégral).</t>
         </is>
